--- a/app/src/main/assets/Software Engineering.xlsx
+++ b/app/src/main/assets/Software Engineering.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\FILES\Others\AcademicAlly Assessments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\AndroidStudioProjects\AcademicAlly\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8427A6-DBD0-4CC3-B132-079D70D68F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C07B8E3-D075-4031-B02E-3E12ACADDEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Multiple Choice" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="163">
   <si>
     <t>It is derived from the Greek word Systema, which means an organized relationship between any set of components to achieve some common cause or objective.</t>
   </si>
@@ -513,6 +513,9 @@
   </si>
   <si>
     <t>Use Case Modeling Part 1</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -548,9 +551,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -831,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -847,7 +849,7 @@
     <col min="6" max="6" width="55.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>156</v>
       </c>
@@ -869,8 +871,11 @@
       <c r="G1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -892,8 +897,11 @@
       <c r="G2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>156</v>
       </c>
@@ -915,8 +923,11 @@
       <c r="G3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -938,8 +949,11 @@
       <c r="G4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>156</v>
       </c>
@@ -961,8 +975,11 @@
       <c r="G5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>156</v>
       </c>
@@ -984,8 +1001,11 @@
       <c r="G6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>156</v>
       </c>
@@ -1007,8 +1027,11 @@
       <c r="G7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>157</v>
       </c>
@@ -1030,8 +1053,11 @@
       <c r="G8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -1053,8 +1079,11 @@
       <c r="G9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -1076,8 +1105,11 @@
       <c r="G10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>158</v>
       </c>
@@ -1099,8 +1131,11 @@
       <c r="G11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -1122,8 +1157,11 @@
       <c r="G12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>158</v>
       </c>
@@ -1145,8 +1183,11 @@
       <c r="G13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -1168,8 +1209,11 @@
       <c r="G14" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -1191,8 +1235,11 @@
       <c r="G15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -1214,8 +1261,11 @@
       <c r="G16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>159</v>
       </c>
@@ -1237,8 +1287,11 @@
       <c r="G17" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>160</v>
       </c>
@@ -1260,8 +1313,11 @@
       <c r="G18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>160</v>
       </c>
@@ -1283,8 +1339,11 @@
       <c r="G19" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>160</v>
       </c>
@@ -1306,8 +1365,11 @@
       <c r="G20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>161</v>
       </c>
@@ -1329,8 +1391,11 @@
       <c r="G21" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>161</v>
       </c>
@@ -1351,6 +1416,9 @@
       </c>
       <c r="G22" t="s">
         <v>29</v>
+      </c>
+      <c r="H22" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1360,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79973E6C-3DFF-4D68-8BA6-A804876076EC}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1373,7 +1441,7 @@
     <col min="3" max="3" width="33.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1384,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1392,7 +1460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1400,7 +1468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -1410,8 +1478,11 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>156</v>
       </c>
@@ -1421,8 +1492,11 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>156</v>
       </c>
@@ -1432,203 +1506,260 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>48</v>
       </c>
       <c r="C9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>50</v>
       </c>
       <c r="C10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>76</v>
       </c>
       <c r="C12" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>78</v>
       </c>
       <c r="C13" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>94</v>
       </c>
       <c r="C14" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>159</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>96</v>
       </c>
       <c r="C15" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>159</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>98</v>
       </c>
       <c r="C16" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>100</v>
       </c>
       <c r="C17" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>160</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>118</v>
       </c>
       <c r="C18" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>160</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>120</v>
       </c>
       <c r="C19" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>160</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>122</v>
       </c>
       <c r="C20" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>124</v>
       </c>
       <c r="C21" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>126</v>
       </c>
       <c r="C22" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>161</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>141</v>
       </c>
       <c r="C23" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>161</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>145</v>
       </c>
       <c r="C24" t="s">
         <v>146</v>
+      </c>
+      <c r="D24" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1638,10 +1769,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AAF58B9-2D95-4450-89F9-EBD609CB62F7}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1650,7 +1781,7 @@
     <col min="2" max="2" width="159.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>156</v>
       </c>
@@ -1660,8 +1791,11 @@
       <c r="C1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -1671,8 +1805,11 @@
       <c r="C2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>156</v>
       </c>
@@ -1682,8 +1819,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -1693,8 +1833,11 @@
       <c r="C4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>156</v>
       </c>
@@ -1704,8 +1847,11 @@
       <c r="C5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>157</v>
       </c>
@@ -1715,8 +1861,11 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>157</v>
       </c>
@@ -1726,8 +1875,11 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>157</v>
       </c>
@@ -1737,8 +1889,11 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>158</v>
       </c>
@@ -1748,8 +1903,11 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>158</v>
       </c>
@@ -1759,8 +1917,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>158</v>
       </c>
@@ -1770,8 +1931,11 @@
       <c r="C11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -1781,8 +1945,11 @@
       <c r="C12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>159</v>
       </c>
@@ -1792,8 +1959,11 @@
       <c r="C13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -1803,8 +1973,11 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -1814,8 +1987,11 @@
       <c r="C15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -1825,8 +2001,11 @@
       <c r="C16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>160</v>
       </c>
@@ -1836,8 +2015,11 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>160</v>
       </c>
@@ -1847,8 +2029,11 @@
       <c r="C18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>160</v>
       </c>
@@ -1858,8 +2043,11 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>161</v>
       </c>
@@ -1869,8 +2057,11 @@
       <c r="C20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>161</v>
       </c>
@@ -1879,6 +2070,9 @@
       </c>
       <c r="C21" t="b">
         <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
